--- a/FosSahul2.0_metadata.xlsx
+++ b/FosSahul2.0_metadata.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete0198/Documents/Manuscripts/Global Ecology/Peters et al. Scientific Data/Manuscript/Revision/Code and data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1E67D-0018-A743-9338-71241D61EC77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82978F35-0B6A-1749-9EA6-15A35676801D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1220" windowWidth="31660" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="900" windowWidth="31660" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="2" r:id="rId1"/>
     <sheet name="References" sheetId="3" r:id="rId2"/>
     <sheet name="Taxonomic information" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5092,9 +5092,6 @@
     <t>Uranium-series ages for closed-system of no body remains (e.g., speleothems, corals, calcite within bones etc): Whether a correction was made for detrital thorium contamination ("Yes" or "No")</t>
   </si>
   <si>
-    <t>ESR ages: Whether the internal dose rate is "&lt;10%" or "&gt;10%"</t>
-  </si>
-  <si>
     <t>ESR ages: Whether the gamma dose rate was measured "in situ" or "assumed"</t>
   </si>
   <si>
@@ -5188,9 +5185,6 @@
     <t>Luminescence_SingleGrainModelling</t>
   </si>
   <si>
-    <t>Minimum age (‘&gt;’), maximum age (‘&lt;’),  exact age (‘=’), age range ('range'), presence only ('presence'), pooled age ('pooled')</t>
-  </si>
-  <si>
     <t>For radiocarbon: 'ABA, AAA or acid wash', 'na'</t>
   </si>
   <si>
@@ -5246,6 +5240,12 @@
   </si>
   <si>
     <t>For radiocarbon ages of corals or shells: whether x-ray diffractionshowed that recrystallisation was insignificant ("yes" or "no")</t>
+  </si>
+  <si>
+    <t>ESR ages: Whether the internal dose rate is &lt;10%, "yes" or "no"</t>
+  </si>
+  <si>
+    <t>Minimum age (‘&gt;’), maximum age (‘&lt;’),  exact age (‘=’)</t>
   </si>
 </sst>
 </file>
@@ -5977,8 +5977,8 @@
   </sheetPr>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6150,7 +6150,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>1473</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6192,7 +6192,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>1429</v>
@@ -6201,16 +6201,16 @@
     <row r="24" spans="1:3">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>1430</v>
@@ -6219,16 +6219,16 @@
     <row r="26" spans="1:3">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>1431</v>
@@ -6237,19 +6237,19 @@
     <row r="28" spans="1:3">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6258,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="41" customFormat="1">
@@ -6285,16 +6285,16 @@
         <v>23</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="42"/>
       <c r="B34" s="46" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>1441</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6348,16 +6348,16 @@
         <v>29</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="42"/>
       <c r="B41" s="44" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6375,18 +6375,18 @@
         <v>31</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="36" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6404,18 +6404,18 @@
         <v>33</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="36" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6424,7 +6424,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6433,7 +6433,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6442,7 +6442,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6451,27 +6451,27 @@
         <v>38</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="36" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6480,18 +6480,18 @@
         <v>40</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="36" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6500,7 +6500,7 @@
         <v>42</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6509,25 +6509,25 @@
         <v>43</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="35"/>
       <c r="B58" s="36" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C58" s="35" t="s">
         <v>1464</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="35"/>
       <c r="B59" s="36" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>1466</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6537,7 +6537,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="40" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -6547,7 +6547,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C62" s="4"/>
     </row>
@@ -6556,7 +6556,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
